--- a/BulkImport/Geo.xlsx
+++ b/BulkImport/Geo.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awaytome\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="8_{F108CFA8-CAEC-4B7E-9BE1-E73B43DF5F7D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22CBD60-CD41-4584-8E4D-144DA5C68146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="500" windowHeight="11835" windowWidth="21600" xWindow="2985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3225"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="1157">
   <si>
     <t>Account</t>
   </si>
@@ -3511,7 +3511,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\ mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3543,32 +3543,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3653,10 +3653,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3691,7 +3691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3743,7 +3743,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3854,21 +3854,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3885,7 +3885,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3937,39 +3937,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:L387"/>
+  <dimension ref="A1:IV387"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
+      <selection activeCell="D379" sqref="D379"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="2" max="3" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="11" max="256" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="256" width="10" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +4204,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +4407,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -4842,7 +4842,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -5741,7 +5741,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -5770,7 +5770,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -6321,7 +6321,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -6379,7 +6379,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
@@ -7017,7 +7017,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7046,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +7075,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>10</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>10</v>
       </c>
@@ -7249,7 +7249,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -7568,7 +7568,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>10</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -7887,7 +7887,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>10</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>10</v>
       </c>
@@ -7974,7 +7974,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>10</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -8061,7 +8061,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>10</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -8235,7 +8235,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -8264,7 +8264,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -8322,7 +8322,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -8351,7 +8351,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>10</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -8409,7 +8409,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>10</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>10</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>10</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>10</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>10</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>10</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>10</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>10</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>10</v>
       </c>
@@ -8728,7 +8728,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>10</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>10</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>10</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -8902,7 +8902,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
@@ -8931,7 +8931,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>10</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>10</v>
       </c>
@@ -8989,7 +8989,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -9018,7 +9018,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>10</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>10</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>10</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>10</v>
       </c>
@@ -9134,7 +9134,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>10</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>10</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -9250,7 +9250,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>10</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -9308,7 +9308,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>10</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>10</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
@@ -9453,7 +9453,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>10</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>10</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>10</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>10</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -9627,7 +9627,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>10</v>
       </c>
@@ -9656,7 +9656,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>10</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
         <v>10</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -9859,7 +9859,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -9917,7 +9917,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -9975,7 +9975,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -10004,7 +10004,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -10091,7 +10091,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -10149,7 +10149,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>10</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>10</v>
       </c>
@@ -10236,7 +10236,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>10</v>
       </c>
@@ -10265,7 +10265,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>10</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>10</v>
       </c>
@@ -10323,7 +10323,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -10352,7 +10352,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>10</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>10</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>10</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>10</v>
       </c>
@@ -10497,7 +10497,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>10</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>10</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>10</v>
       </c>
@@ -10613,7 +10613,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
@@ -10642,7 +10642,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
@@ -10671,7 +10671,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>10</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>10</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>10</v>
       </c>
@@ -10758,7 +10758,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>10</v>
       </c>
@@ -10787,7 +10787,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>10</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>10</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>10</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>10</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>10</v>
       </c>
@@ -10932,7 +10932,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
         <v>10</v>
       </c>
@@ -10961,7 +10961,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>10</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>10</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>10</v>
       </c>
@@ -11077,7 +11077,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>10</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>10</v>
       </c>
@@ -11135,7 +11135,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
         <v>10</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
         <v>10</v>
       </c>
@@ -11196,7 +11196,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
         <v>10</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
         <v>10</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="252" spans="1:10">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
         <v>10</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="253" spans="1:10">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
         <v>10</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="254" spans="1:10">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
         <v>10</v>
       </c>
@@ -11341,7 +11341,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="255" spans="1:10">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
         <v>10</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="256" spans="1:10">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>10</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>10</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>10</v>
       </c>
@@ -11457,7 +11457,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>10</v>
       </c>
@@ -11486,7 +11486,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>10</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>10</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>10</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>10</v>
       </c>
@@ -11602,7 +11602,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>10</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>10</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>10</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>10</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>10</v>
       </c>
@@ -11776,7 +11776,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>10</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>10</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
         <v>10</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>10</v>
       </c>
@@ -11921,7 +11921,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>10</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>10</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>10</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>10</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>10</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>10</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
         <v>10</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
         <v>10</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
         <v>10</v>
       </c>
@@ -12182,7 +12182,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>10</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
         <v>10</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>10</v>
       </c>
@@ -12269,7 +12269,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>10</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
         <v>10</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
         <v>10</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
         <v>10</v>
       </c>
@@ -12385,7 +12385,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>10</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>10</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>10</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>10</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>10</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>10</v>
       </c>
@@ -12556,7 +12556,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>10</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
         <v>10</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
         <v>10</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
@@ -12701,7 +12701,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
         <v>10</v>
       </c>
@@ -12730,7 +12730,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
         <v>10</v>
       </c>
@@ -12759,7 +12759,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>10</v>
       </c>
@@ -12788,7 +12788,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>10</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>10</v>
       </c>
@@ -12846,7 +12846,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>10</v>
       </c>
@@ -12904,7 +12904,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>10</v>
       </c>
@@ -12933,7 +12933,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>10</v>
       </c>
@@ -12962,7 +12962,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>10</v>
       </c>
@@ -12991,7 +12991,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>10</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>10</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>10</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>10</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>10</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>10</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>10</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>10</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>10</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>10</v>
       </c>
@@ -13281,7 +13281,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>10</v>
       </c>
@@ -13310,7 +13310,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>10</v>
       </c>
@@ -13339,7 +13339,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>10</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>10</v>
       </c>
@@ -13397,7 +13397,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>10</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>10</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>10</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>10</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>10</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>10</v>
       </c>
@@ -13571,7 +13571,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>10</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>10</v>
       </c>
@@ -13658,7 +13658,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>10</v>
       </c>
@@ -13687,7 +13687,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>10</v>
       </c>
@@ -13716,7 +13716,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>10</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>10</v>
       </c>
@@ -13774,7 +13774,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>10</v>
       </c>
@@ -13803,7 +13803,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>10</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>10</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>10</v>
       </c>
@@ -13890,7 +13890,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>10</v>
       </c>
@@ -13919,7 +13919,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>10</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>10</v>
       </c>
@@ -13977,7 +13977,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>10</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>10</v>
       </c>
@@ -14035,7 +14035,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>10</v>
       </c>
@@ -14064,7 +14064,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>10</v>
       </c>
@@ -14093,7 +14093,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>10</v>
       </c>
@@ -14122,7 +14122,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>10</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>10</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>10</v>
       </c>
@@ -14209,7 +14209,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>10</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>10</v>
       </c>
@@ -14267,7 +14267,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>10</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>10</v>
       </c>
@@ -14325,7 +14325,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>10</v>
       </c>
@@ -14354,7 +14354,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>10</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>10</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>10</v>
       </c>
@@ -14441,7 +14441,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>10</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>10</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>10</v>
       </c>
@@ -14528,7 +14528,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>10</v>
       </c>
@@ -14557,7 +14557,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>10</v>
       </c>
@@ -14586,7 +14586,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>10</v>
       </c>
@@ -14615,7 +14615,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>10</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>10</v>
       </c>
@@ -14673,7 +14673,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>10</v>
       </c>
@@ -14702,7 +14702,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>10</v>
       </c>
@@ -14731,7 +14731,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>10</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>10</v>
       </c>
@@ -14789,7 +14789,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>10</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>10</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>10</v>
       </c>
@@ -14876,7 +14876,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>10</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>10</v>
       </c>
@@ -14934,7 +14934,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>10</v>
       </c>
@@ -14963,7 +14963,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>10</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>10</v>
       </c>
@@ -15021,7 +15021,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -15031,7 +15031,7 @@
       <c r="G382" s="3"/>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -15041,7 +15041,7 @@
       <c r="G383" s="3"/>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -15051,7 +15051,7 @@
       <c r="G384" s="3"/>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -15061,7 +15061,7 @@
       <c r="G385" s="3"/>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -15071,15 +15071,15 @@
       <c r="G386" s="3"/>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J387">
     <sortCondition ref="E2:E387"/>
   </sortState>
-  <pageMargins bottom="0" footer="0" header="0" left="0" right="0" top="0"/>
-  <pageSetup copies="0" fitToHeight="0" fitToWidth="0" horizontalDpi="0" orientation="landscape" verticalDpi="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/BulkImport/Geo.xlsx
+++ b/BulkImport/Geo.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25217"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\workRepo\MysoftProject\BulkImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\awaytome\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22CBD60-CD41-4584-8E4D-144DA5C68146}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="8_{F108CFA8-CAEC-4B7E-9BE1-E73B43DF5F7D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="500" windowHeight="11835" windowWidth="21600" xWindow="2985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3225"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="1156">
   <si>
     <t>Account</t>
   </si>
@@ -3031,9 +3031,6 @@
   </si>
   <si>
     <t>G025318B1-DW, PG112204</t>
-  </si>
-  <si>
-    <t>G025215B1-DW, PG112204</t>
   </si>
   <si>
     <t>G025214B1-DW, PG112204</t>
@@ -3511,7 +3508,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="\ mm\/dd\/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3543,32 +3540,32 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3653,10 +3650,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3691,7 +3688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3743,7 +3740,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3854,21 +3851,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3885,7 +3882,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3937,39 +3934,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:IV387"/>
+  <dimension ref="A1:L387"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="D379" sqref="D379"/>
+    <sheetView showOutlineSymbols="0" tabSelected="1" topLeftCell="A381" workbookViewId="0">
+      <selection activeCell="K225" sqref="K225:K402"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="256" width="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="12" max="256" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +4029,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -4059,7 +4058,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4088,7 +4087,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -4117,7 +4116,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -4146,7 +4145,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -4204,7 +4203,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -4291,7 +4290,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -4320,7 +4319,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4349,7 +4348,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -4378,7 +4377,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -4407,7 +4406,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
@@ -4465,7 +4464,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -4552,7 +4551,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -4581,7 +4580,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>10</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
         <v>10</v>
       </c>
@@ -4697,7 +4696,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
         <v>10</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -4755,7 +4754,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
@@ -4784,7 +4783,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
@@ -4842,7 +4841,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -4871,7 +4870,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
         <v>10</v>
       </c>
@@ -4900,7 +4899,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -4958,7 +4957,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
         <v>10</v>
       </c>
@@ -5045,7 +5044,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
         <v>10</v>
       </c>
@@ -5074,7 +5073,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
         <v>10</v>
       </c>
@@ -5103,7 +5102,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
         <v>10</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
         <v>10</v>
       </c>
@@ -5161,7 +5160,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -5190,7 +5189,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
         <v>10</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
         <v>10</v>
       </c>
@@ -5306,7 +5305,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
         <v>10</v>
       </c>
@@ -5335,7 +5334,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
@@ -5393,7 +5392,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
@@ -5422,7 +5421,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
         <v>10</v>
       </c>
@@ -5451,7 +5450,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
         <v>10</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -5509,7 +5508,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
         <v>10</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
         <v>10</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
@@ -5625,7 +5624,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
         <v>10</v>
       </c>
@@ -5683,7 +5682,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
         <v>10</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
@@ -5741,7 +5740,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
         <v>10</v>
       </c>
@@ -5799,7 +5798,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
         <v>10</v>
       </c>
@@ -5828,7 +5827,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
         <v>10</v>
       </c>
@@ -5857,7 +5856,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
         <v>10</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -5915,7 +5914,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
         <v>10</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
         <v>10</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
         <v>10</v>
       </c>
@@ -6060,7 +6059,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
         <v>10</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
         <v>10</v>
       </c>
@@ -6118,7 +6117,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
         <v>10</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
         <v>10</v>
       </c>
@@ -6176,7 +6175,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
         <v>10</v>
       </c>
@@ -6205,7 +6204,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -6263,7 +6262,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -6292,7 +6291,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
         <v>10</v>
       </c>
@@ -6321,7 +6320,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
         <v>10</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -6379,7 +6378,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
         <v>10</v>
       </c>
@@ -6408,7 +6407,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
         <v>10</v>
       </c>
@@ -6437,7 +6436,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
         <v>10</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
         <v>10</v>
       </c>
@@ -6495,7 +6494,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
@@ -6524,7 +6523,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -6553,7 +6552,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
@@ -6582,7 +6581,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
         <v>10</v>
       </c>
@@ -6611,7 +6610,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
         <v>10</v>
       </c>
@@ -6640,7 +6639,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
         <v>10</v>
       </c>
@@ -6669,7 +6668,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
         <v>10</v>
       </c>
@@ -6698,7 +6697,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
         <v>10</v>
       </c>
@@ -6727,7 +6726,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
         <v>10</v>
       </c>
@@ -6785,7 +6784,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
@@ -6843,7 +6842,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -6872,7 +6871,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
         <v>10</v>
       </c>
@@ -6901,7 +6900,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
         <v>10</v>
       </c>
@@ -6930,7 +6929,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
         <v>10</v>
       </c>
@@ -6959,7 +6958,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
         <v>10</v>
       </c>
@@ -6988,7 +6987,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="s">
         <v>10</v>
       </c>
@@ -7017,7 +7016,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="s">
         <v>10</v>
       </c>
@@ -7075,7 +7074,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="s">
         <v>10</v>
       </c>
@@ -7104,7 +7103,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="s">
         <v>10</v>
       </c>
@@ -7133,7 +7132,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="s">
         <v>10</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="s">
         <v>10</v>
       </c>
@@ -7220,7 +7219,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
         <v>10</v>
       </c>
@@ -7249,7 +7248,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="s">
         <v>10</v>
       </c>
@@ -7278,7 +7277,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="s">
         <v>10</v>
       </c>
@@ -7307,7 +7306,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="s">
         <v>10</v>
       </c>
@@ -7336,7 +7335,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
@@ -7365,7 +7364,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
         <v>10</v>
       </c>
@@ -7394,7 +7393,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="s">
         <v>10</v>
       </c>
@@ -7423,7 +7422,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
         <v>10</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="s">
         <v>10</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -7510,7 +7509,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="s">
         <v>10</v>
       </c>
@@ -7539,7 +7538,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="s">
         <v>10</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="s">
         <v>10</v>
       </c>
@@ -7597,7 +7596,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="s">
         <v>10</v>
       </c>
@@ -7626,7 +7625,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="s">
         <v>10</v>
       </c>
@@ -7655,7 +7654,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="s">
         <v>10</v>
       </c>
@@ -7684,7 +7683,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="s">
         <v>10</v>
       </c>
@@ -7713,7 +7712,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
         <v>10</v>
       </c>
@@ -7742,7 +7741,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="s">
         <v>10</v>
       </c>
@@ -7800,7 +7799,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -7829,7 +7828,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="s">
         <v>10</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
         <v>10</v>
       </c>
@@ -7887,7 +7886,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="s">
         <v>10</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="s">
         <v>10</v>
       </c>
@@ -7945,7 +7944,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="s">
         <v>10</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="s">
         <v>10</v>
       </c>
@@ -8003,7 +8002,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="s">
         <v>10</v>
       </c>
@@ -8032,7 +8031,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="s">
         <v>10</v>
       </c>
@@ -8061,7 +8060,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="s">
         <v>10</v>
       </c>
@@ -8090,7 +8089,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="s">
         <v>10</v>
       </c>
@@ -8119,7 +8118,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="s">
         <v>10</v>
       </c>
@@ -8177,7 +8176,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="s">
         <v>10</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="s">
         <v>10</v>
       </c>
@@ -8235,7 +8234,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="s">
         <v>10</v>
       </c>
@@ -8264,7 +8263,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
         <v>10</v>
       </c>
@@ -8293,7 +8292,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="s">
         <v>10</v>
       </c>
@@ -8322,7 +8321,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
         <v>10</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="s">
         <v>10</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="s">
         <v>10</v>
       </c>
@@ -8409,7 +8408,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="s">
         <v>10</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="s">
         <v>10</v>
       </c>
@@ -8467,7 +8466,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="s">
         <v>10</v>
       </c>
@@ -8496,7 +8495,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="s">
         <v>10</v>
       </c>
@@ -8525,7 +8524,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
@@ -8554,7 +8553,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="s">
         <v>10</v>
       </c>
@@ -8583,7 +8582,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
         <v>10</v>
       </c>
@@ -8612,7 +8611,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="s">
         <v>10</v>
       </c>
@@ -8641,7 +8640,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="s">
         <v>10</v>
       </c>
@@ -8670,7 +8669,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="s">
         <v>10</v>
       </c>
@@ -8699,7 +8698,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
         <v>10</v>
       </c>
@@ -8728,7 +8727,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
@@ -8757,7 +8756,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="s">
         <v>10</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="s">
         <v>10</v>
       </c>
@@ -8844,7 +8843,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="s">
         <v>10</v>
       </c>
@@ -8873,7 +8872,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
@@ -8931,7 +8930,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="s">
         <v>10</v>
       </c>
@@ -8960,7 +8959,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="s">
         <v>10</v>
       </c>
@@ -8989,7 +8988,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="s">
         <v>10</v>
       </c>
@@ -9018,7 +9017,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="s">
         <v>10</v>
       </c>
@@ -9047,7 +9046,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="s">
         <v>10</v>
       </c>
@@ -9076,7 +9075,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="s">
         <v>10</v>
       </c>
@@ -9105,7 +9104,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="s">
         <v>10</v>
       </c>
@@ -9134,7 +9133,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
         <v>10</v>
       </c>
@@ -9163,7 +9162,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="s">
         <v>10</v>
       </c>
@@ -9192,7 +9191,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="s">
         <v>10</v>
       </c>
@@ -9221,7 +9220,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="s">
         <v>10</v>
       </c>
@@ -9250,7 +9249,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
         <v>10</v>
       </c>
@@ -9279,7 +9278,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -9308,7 +9307,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
         <v>10</v>
       </c>
@@ -9337,7 +9336,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -9366,7 +9365,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -9395,7 +9394,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
         <v>10</v>
       </c>
@@ -9424,7 +9423,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
@@ -9453,7 +9452,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="s">
         <v>10</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="s">
         <v>10</v>
       </c>
@@ -9511,7 +9510,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
@@ -9540,7 +9539,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="s">
         <v>10</v>
       </c>
@@ -9569,7 +9568,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="s">
         <v>10</v>
       </c>
@@ -9598,7 +9597,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -9627,7 +9626,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="s">
         <v>10</v>
       </c>
@@ -9656,7 +9655,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="s">
         <v>10</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
@@ -9714,7 +9713,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
@@ -9743,7 +9742,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -9772,7 +9771,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -9801,7 +9800,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="s">
         <v>10</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -9859,7 +9858,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -9917,7 +9916,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -9975,7 +9974,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -10004,7 +10003,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -10033,7 +10032,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -10062,7 +10061,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -10091,7 +10090,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
@@ -10120,7 +10119,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="s">
         <v>10</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="s">
         <v>10</v>
       </c>
@@ -10207,7 +10206,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="s">
         <v>10</v>
       </c>
@@ -10236,7 +10235,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="s">
         <v>10</v>
       </c>
@@ -10265,7 +10264,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
         <v>10</v>
       </c>
@@ -10294,7 +10293,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
         <v>10</v>
       </c>
@@ -10323,7 +10322,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="s">
         <v>10</v>
       </c>
@@ -10352,7 +10351,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="s">
         <v>10</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="s">
         <v>10</v>
       </c>
@@ -10410,7 +10409,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="s">
         <v>10</v>
       </c>
@@ -10439,7 +10438,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="s">
         <v>10</v>
       </c>
@@ -10468,7 +10467,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="s">
         <v>10</v>
       </c>
@@ -10497,7 +10496,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="s">
         <v>10</v>
       </c>
@@ -10505,7 +10504,7 @@
         <v>460</v>
       </c>
       <c r="C226" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>460</v>
@@ -10526,7 +10525,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="s">
         <v>10</v>
       </c>
@@ -10534,7 +10533,7 @@
         <v>141</v>
       </c>
       <c r="C227" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>141</v>
@@ -10555,7 +10554,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
         <v>10</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>465</v>
       </c>
       <c r="C228" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>465</v>
@@ -10584,7 +10583,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="s">
         <v>10</v>
       </c>
@@ -10592,7 +10591,7 @@
         <v>467</v>
       </c>
       <c r="C229" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>467</v>
@@ -10613,7 +10612,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="s">
         <v>10</v>
       </c>
@@ -10621,7 +10620,7 @@
         <v>469</v>
       </c>
       <c r="C230" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>469</v>
@@ -10642,7 +10641,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="s">
         <v>10</v>
       </c>
@@ -10650,7 +10649,7 @@
         <v>471</v>
       </c>
       <c r="C231" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>471</v>
@@ -10671,7 +10670,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
         <v>10</v>
       </c>
@@ -10679,7 +10678,7 @@
         <v>473</v>
       </c>
       <c r="C232" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>473</v>
@@ -10700,7 +10699,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9">
       <c r="A233" s="1" t="s">
         <v>10</v>
       </c>
@@ -10708,7 +10707,7 @@
         <v>475</v>
       </c>
       <c r="C233" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>475</v>
@@ -10729,7 +10728,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9">
       <c r="A234" s="1" t="s">
         <v>10</v>
       </c>
@@ -10737,7 +10736,7 @@
         <v>477</v>
       </c>
       <c r="C234" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>477</v>
@@ -10758,7 +10757,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
         <v>10</v>
       </c>
@@ -10766,7 +10765,7 @@
         <v>479</v>
       </c>
       <c r="C235" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>479</v>
@@ -10787,7 +10786,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9">
       <c r="A236" s="1" t="s">
         <v>10</v>
       </c>
@@ -10795,7 +10794,7 @@
         <v>481</v>
       </c>
       <c r="C236" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>481</v>
@@ -10816,7 +10815,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9">
       <c r="A237" s="1" t="s">
         <v>10</v>
       </c>
@@ -10824,7 +10823,7 @@
         <v>483</v>
       </c>
       <c r="C237" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>483</v>
@@ -10845,7 +10844,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9">
       <c r="A238" s="1" t="s">
         <v>10</v>
       </c>
@@ -10853,7 +10852,7 @@
         <v>485</v>
       </c>
       <c r="C238" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>485</v>
@@ -10874,7 +10873,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9">
       <c r="A239" s="1" t="s">
         <v>10</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>487</v>
       </c>
       <c r="C239" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>487</v>
@@ -10903,7 +10902,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9">
       <c r="A240" s="1" t="s">
         <v>10</v>
       </c>
@@ -10911,7 +10910,7 @@
         <v>489</v>
       </c>
       <c r="C240" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>489</v>
@@ -10932,7 +10931,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10">
       <c r="A241" s="1" t="s">
         <v>10</v>
       </c>
@@ -10940,7 +10939,7 @@
         <v>491</v>
       </c>
       <c r="C241" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>492</v>
@@ -10961,7 +10960,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10">
       <c r="A242" s="1" t="s">
         <v>10</v>
       </c>
@@ -10969,7 +10968,7 @@
         <v>494</v>
       </c>
       <c r="C242" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>494</v>
@@ -10990,7 +10989,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10">
       <c r="A243" s="1" t="s">
         <v>10</v>
       </c>
@@ -10998,7 +10997,7 @@
         <v>496</v>
       </c>
       <c r="C243" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>496</v>
@@ -11019,7 +11018,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>498</v>
       </c>
       <c r="C244" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>498</v>
@@ -11048,7 +11047,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10">
       <c r="A245" s="1" t="s">
         <v>10</v>
       </c>
@@ -11056,7 +11055,7 @@
         <v>500</v>
       </c>
       <c r="C245" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>500</v>
@@ -11077,7 +11076,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:10">
       <c r="A246" s="1" t="s">
         <v>10</v>
       </c>
@@ -11085,7 +11084,7 @@
         <v>502</v>
       </c>
       <c r="C246" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>502</v>
@@ -11106,7 +11105,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:10">
       <c r="A247" s="1" t="s">
         <v>10</v>
       </c>
@@ -11114,7 +11113,7 @@
         <v>504</v>
       </c>
       <c r="C247" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>504</v>
@@ -11135,7 +11134,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:10">
       <c r="A248" s="1" t="s">
         <v>10</v>
       </c>
@@ -11143,7 +11142,7 @@
         <v>506</v>
       </c>
       <c r="C248" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>506</v>
@@ -11167,7 +11166,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:10">
       <c r="A249" s="1" t="s">
         <v>10</v>
       </c>
@@ -11175,7 +11174,7 @@
         <v>509</v>
       </c>
       <c r="C249" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>509</v>
@@ -11196,7 +11195,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:10">
       <c r="A250" s="1" t="s">
         <v>10</v>
       </c>
@@ -11204,7 +11203,7 @@
         <v>511</v>
       </c>
       <c r="C250" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>511</v>
@@ -11225,7 +11224,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:10">
       <c r="A251" s="1" t="s">
         <v>10</v>
       </c>
@@ -11233,7 +11232,7 @@
         <v>513</v>
       </c>
       <c r="C251" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>513</v>
@@ -11254,7 +11253,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:10">
       <c r="A252" s="1" t="s">
         <v>10</v>
       </c>
@@ -11262,7 +11261,7 @@
         <v>515</v>
       </c>
       <c r="C252" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>515</v>
@@ -11283,7 +11282,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:10">
       <c r="A253" s="1" t="s">
         <v>10</v>
       </c>
@@ -11291,7 +11290,7 @@
         <v>517</v>
       </c>
       <c r="C253" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>517</v>
@@ -11312,7 +11311,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:10">
       <c r="A254" s="1" t="s">
         <v>10</v>
       </c>
@@ -11320,7 +11319,7 @@
         <v>519</v>
       </c>
       <c r="C254" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>519</v>
@@ -11341,7 +11340,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:10">
       <c r="A255" s="1" t="s">
         <v>10</v>
       </c>
@@ -11349,7 +11348,7 @@
         <v>521</v>
       </c>
       <c r="C255" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>521</v>
@@ -11370,7 +11369,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:10">
       <c r="A256" s="1" t="s">
         <v>10</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>523</v>
       </c>
       <c r="C256" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>523</v>
@@ -11399,7 +11398,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9">
       <c r="A257" s="1" t="s">
         <v>10</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v>525</v>
       </c>
       <c r="C257" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>525</v>
@@ -11428,7 +11427,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9">
       <c r="A258" s="1" t="s">
         <v>10</v>
       </c>
@@ -11436,7 +11435,7 @@
         <v>527</v>
       </c>
       <c r="C258" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>527</v>
@@ -11457,7 +11456,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9">
       <c r="A259" s="1" t="s">
         <v>10</v>
       </c>
@@ -11465,7 +11464,7 @@
         <v>529</v>
       </c>
       <c r="C259" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>529</v>
@@ -11486,7 +11485,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9">
       <c r="A260" s="1" t="s">
         <v>10</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>531</v>
       </c>
       <c r="C260" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>531</v>
@@ -11515,7 +11514,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9">
       <c r="A261" s="1" t="s">
         <v>10</v>
       </c>
@@ -11523,7 +11522,7 @@
         <v>533</v>
       </c>
       <c r="C261" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>533</v>
@@ -11544,7 +11543,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9">
       <c r="A262" s="1" t="s">
         <v>10</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>535</v>
       </c>
       <c r="C262" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>535</v>
@@ -11573,7 +11572,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9">
       <c r="A263" s="1" t="s">
         <v>10</v>
       </c>
@@ -11581,7 +11580,7 @@
         <v>537</v>
       </c>
       <c r="C263" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>537</v>
@@ -11602,7 +11601,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9">
       <c r="A264" s="1" t="s">
         <v>10</v>
       </c>
@@ -11610,7 +11609,7 @@
         <v>539</v>
       </c>
       <c r="C264" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>539</v>
@@ -11631,7 +11630,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
         <v>10</v>
       </c>
@@ -11639,7 +11638,7 @@
         <v>541</v>
       </c>
       <c r="C265" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>541</v>
@@ -11660,7 +11659,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9">
       <c r="A266" s="1" t="s">
         <v>10</v>
       </c>
@@ -11668,7 +11667,7 @@
         <v>543</v>
       </c>
       <c r="C266" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>543</v>
@@ -11689,7 +11688,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9">
       <c r="A267" s="1" t="s">
         <v>10</v>
       </c>
@@ -11697,7 +11696,7 @@
         <v>545</v>
       </c>
       <c r="C267" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>545</v>
@@ -11718,7 +11717,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9">
       <c r="A268" s="1" t="s">
         <v>10</v>
       </c>
@@ -11726,7 +11725,7 @@
         <v>547</v>
       </c>
       <c r="C268" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>547</v>
@@ -11747,7 +11746,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9">
       <c r="A269" s="1" t="s">
         <v>10</v>
       </c>
@@ -11755,7 +11754,7 @@
         <v>549</v>
       </c>
       <c r="C269" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>549</v>
@@ -11776,7 +11775,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
         <v>10</v>
       </c>
@@ -11784,7 +11783,7 @@
         <v>551</v>
       </c>
       <c r="C270" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>551</v>
@@ -11805,7 +11804,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9">
       <c r="A271" s="1" t="s">
         <v>10</v>
       </c>
@@ -11813,7 +11812,7 @@
         <v>553</v>
       </c>
       <c r="C271" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>553</v>
@@ -11834,7 +11833,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9">
       <c r="A272" s="1" t="s">
         <v>10</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>555</v>
       </c>
       <c r="C272" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>555</v>
@@ -11863,7 +11862,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9">
       <c r="A273" s="1" t="s">
         <v>10</v>
       </c>
@@ -11871,7 +11870,7 @@
         <v>557</v>
       </c>
       <c r="C273" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>557</v>
@@ -11892,7 +11891,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9">
       <c r="A274" s="1" t="s">
         <v>10</v>
       </c>
@@ -11900,7 +11899,7 @@
         <v>559</v>
       </c>
       <c r="C274" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>559</v>
@@ -11921,7 +11920,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9">
       <c r="A275" s="1" t="s">
         <v>10</v>
       </c>
@@ -11929,7 +11928,7 @@
         <v>561</v>
       </c>
       <c r="C275" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>561</v>
@@ -11950,7 +11949,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9">
       <c r="A276" s="1" t="s">
         <v>10</v>
       </c>
@@ -11958,7 +11957,7 @@
         <v>563</v>
       </c>
       <c r="C276" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>563</v>
@@ -11979,7 +11978,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9">
       <c r="A277" s="1" t="s">
         <v>10</v>
       </c>
@@ -11987,7 +11986,7 @@
         <v>565</v>
       </c>
       <c r="C277" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>565</v>
@@ -12008,7 +12007,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9">
       <c r="A278" s="1" t="s">
         <v>10</v>
       </c>
@@ -12016,7 +12015,7 @@
         <v>567</v>
       </c>
       <c r="C278" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>567</v>
@@ -12037,7 +12036,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9">
       <c r="A279" s="1" t="s">
         <v>10</v>
       </c>
@@ -12045,7 +12044,7 @@
         <v>569</v>
       </c>
       <c r="C279" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>569</v>
@@ -12066,7 +12065,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9">
       <c r="A280" s="1" t="s">
         <v>10</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>571</v>
       </c>
       <c r="C280" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>571</v>
@@ -12095,7 +12094,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9">
       <c r="A281" s="1" t="s">
         <v>10</v>
       </c>
@@ -12103,7 +12102,7 @@
         <v>573</v>
       </c>
       <c r="C281" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>573</v>
@@ -12124,7 +12123,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9">
       <c r="A282" s="1" t="s">
         <v>10</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>575</v>
       </c>
       <c r="C282" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>575</v>
@@ -12153,7 +12152,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9">
       <c r="A283" s="1" t="s">
         <v>10</v>
       </c>
@@ -12161,7 +12160,7 @@
         <v>577</v>
       </c>
       <c r="C283" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>577</v>
@@ -12182,7 +12181,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9">
       <c r="A284" s="1" t="s">
         <v>10</v>
       </c>
@@ -12190,7 +12189,7 @@
         <v>579</v>
       </c>
       <c r="C284" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>579</v>
@@ -12211,7 +12210,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9">
       <c r="A285" s="1" t="s">
         <v>10</v>
       </c>
@@ -12219,7 +12218,7 @@
         <v>581</v>
       </c>
       <c r="C285" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>581</v>
@@ -12240,7 +12239,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9">
       <c r="A286" s="1" t="s">
         <v>10</v>
       </c>
@@ -12248,7 +12247,7 @@
         <v>583</v>
       </c>
       <c r="C286" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>583</v>
@@ -12269,7 +12268,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9">
       <c r="A287" s="1" t="s">
         <v>10</v>
       </c>
@@ -12277,7 +12276,7 @@
         <v>585</v>
       </c>
       <c r="C287" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>585</v>
@@ -12298,7 +12297,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9">
       <c r="A288" s="1" t="s">
         <v>10</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>587</v>
       </c>
       <c r="C288" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>587</v>
@@ -12327,7 +12326,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9">
       <c r="A289" s="1" t="s">
         <v>10</v>
       </c>
@@ -12335,7 +12334,7 @@
         <v>589</v>
       </c>
       <c r="C289" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>589</v>
@@ -12356,7 +12355,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9">
       <c r="A290" s="1" t="s">
         <v>10</v>
       </c>
@@ -12364,7 +12363,7 @@
         <v>591</v>
       </c>
       <c r="C290" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>591</v>
@@ -12385,7 +12384,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9">
       <c r="A291" s="1" t="s">
         <v>10</v>
       </c>
@@ -12393,7 +12392,7 @@
         <v>593</v>
       </c>
       <c r="C291" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>593</v>
@@ -12414,7 +12413,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9">
       <c r="A292" s="1" t="s">
         <v>10</v>
       </c>
@@ -12422,7 +12421,7 @@
         <v>595</v>
       </c>
       <c r="C292" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>595</v>
@@ -12443,7 +12442,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9">
       <c r="A293" s="1" t="s">
         <v>10</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>597</v>
       </c>
       <c r="C293" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>597</v>
@@ -12472,7 +12471,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9">
       <c r="A294" s="1" t="s">
         <v>10</v>
       </c>
@@ -12480,7 +12479,7 @@
         <v>599</v>
       </c>
       <c r="C294" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>599</v>
@@ -12501,7 +12500,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9">
       <c r="A295" s="1" t="s">
         <v>10</v>
       </c>
@@ -12509,7 +12508,7 @@
         <v>601</v>
       </c>
       <c r="C295" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>601</v>
@@ -12527,7 +12526,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9">
       <c r="A296" s="1" t="s">
         <v>10</v>
       </c>
@@ -12535,7 +12534,7 @@
         <v>602</v>
       </c>
       <c r="C296" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>602</v>
@@ -12556,7 +12555,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9">
       <c r="A297" s="1" t="s">
         <v>10</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>604</v>
       </c>
       <c r="C297" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>604</v>
@@ -12585,7 +12584,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9">
       <c r="A298" s="1" t="s">
         <v>10</v>
       </c>
@@ -12593,7 +12592,7 @@
         <v>606</v>
       </c>
       <c r="C298" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>606</v>
@@ -12614,7 +12613,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9">
       <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
@@ -12622,7 +12621,7 @@
         <v>608</v>
       </c>
       <c r="C299" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>608</v>
@@ -12643,7 +12642,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9">
       <c r="A300" s="1" t="s">
         <v>10</v>
       </c>
@@ -12651,7 +12650,7 @@
         <v>610</v>
       </c>
       <c r="C300" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>610</v>
@@ -12672,7 +12671,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9">
       <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
@@ -12680,7 +12679,7 @@
         <v>612</v>
       </c>
       <c r="C301" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>612</v>
@@ -12701,7 +12700,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9">
       <c r="A302" s="1" t="s">
         <v>10</v>
       </c>
@@ -12709,7 +12708,7 @@
         <v>614</v>
       </c>
       <c r="C302" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>614</v>
@@ -12730,7 +12729,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9">
       <c r="A303" s="1" t="s">
         <v>10</v>
       </c>
@@ -12738,7 +12737,7 @@
         <v>616</v>
       </c>
       <c r="C303" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>616</v>
@@ -12759,7 +12758,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9">
       <c r="A304" s="1" t="s">
         <v>10</v>
       </c>
@@ -12767,7 +12766,7 @@
         <v>618</v>
       </c>
       <c r="C304" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>618</v>
@@ -12788,7 +12787,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9">
       <c r="A305" s="1" t="s">
         <v>10</v>
       </c>
@@ -12796,7 +12795,7 @@
         <v>620</v>
       </c>
       <c r="C305" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>620</v>
@@ -12817,7 +12816,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9">
       <c r="A306" s="1" t="s">
         <v>10</v>
       </c>
@@ -12825,7 +12824,7 @@
         <v>622</v>
       </c>
       <c r="C306" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>622</v>
@@ -12846,7 +12845,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9">
       <c r="A307" s="1" t="s">
         <v>10</v>
       </c>
@@ -12854,7 +12853,7 @@
         <v>624</v>
       </c>
       <c r="C307" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>624</v>
@@ -12875,7 +12874,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9">
       <c r="A308" s="1" t="s">
         <v>10</v>
       </c>
@@ -12883,7 +12882,7 @@
         <v>626</v>
       </c>
       <c r="C308" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>626</v>
@@ -12904,7 +12903,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9">
       <c r="A309" s="1" t="s">
         <v>10</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>628</v>
       </c>
       <c r="C309" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>628</v>
@@ -12933,7 +12932,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9">
       <c r="A310" s="1" t="s">
         <v>10</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>630</v>
       </c>
       <c r="C310" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>630</v>
@@ -12962,7 +12961,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9">
       <c r="A311" s="1" t="s">
         <v>10</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>632</v>
       </c>
       <c r="C311" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>632</v>
@@ -12991,7 +12990,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9">
       <c r="A312" s="1" t="s">
         <v>10</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>634</v>
       </c>
       <c r="C312" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>634</v>
@@ -13020,7 +13019,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9">
       <c r="A313" s="1" t="s">
         <v>10</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>636</v>
       </c>
       <c r="C313" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>636</v>
@@ -13049,7 +13048,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
         <v>10</v>
       </c>
@@ -13057,7 +13056,7 @@
         <v>638</v>
       </c>
       <c r="C314" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>638</v>
@@ -13078,7 +13077,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9">
       <c r="A315" s="1" t="s">
         <v>10</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>640</v>
       </c>
       <c r="C315" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>640</v>
@@ -13107,7 +13106,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9">
       <c r="A316" s="1" t="s">
         <v>10</v>
       </c>
@@ -13115,7 +13114,7 @@
         <v>642</v>
       </c>
       <c r="C316" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>642</v>
@@ -13136,7 +13135,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9">
       <c r="A317" s="1" t="s">
         <v>10</v>
       </c>
@@ -13144,7 +13143,7 @@
         <v>644</v>
       </c>
       <c r="C317" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>644</v>
@@ -13165,7 +13164,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9">
       <c r="A318" s="1" t="s">
         <v>10</v>
       </c>
@@ -13173,7 +13172,7 @@
         <v>646</v>
       </c>
       <c r="C318" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>646</v>
@@ -13194,7 +13193,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9">
       <c r="A319" s="1" t="s">
         <v>10</v>
       </c>
@@ -13202,7 +13201,7 @@
         <v>648</v>
       </c>
       <c r="C319" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>648</v>
@@ -13223,7 +13222,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9">
       <c r="A320" s="1" t="s">
         <v>10</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>650</v>
       </c>
       <c r="C320" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>650</v>
@@ -13252,7 +13251,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9">
       <c r="A321" s="1" t="s">
         <v>10</v>
       </c>
@@ -13260,7 +13259,7 @@
         <v>652</v>
       </c>
       <c r="C321" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>652</v>
@@ -13281,7 +13280,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9">
       <c r="A322" s="1" t="s">
         <v>10</v>
       </c>
@@ -13289,7 +13288,7 @@
         <v>654</v>
       </c>
       <c r="C322" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>654</v>
@@ -13310,7 +13309,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9">
       <c r="A323" s="1" t="s">
         <v>10</v>
       </c>
@@ -13318,7 +13317,7 @@
         <v>656</v>
       </c>
       <c r="C323" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>656</v>
@@ -13339,7 +13338,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9">
       <c r="A324" s="1" t="s">
         <v>10</v>
       </c>
@@ -13347,7 +13346,7 @@
         <v>658</v>
       </c>
       <c r="C324" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>658</v>
@@ -13368,7 +13367,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9">
       <c r="A325" s="1" t="s">
         <v>10</v>
       </c>
@@ -13376,7 +13375,7 @@
         <v>660</v>
       </c>
       <c r="C325" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>660</v>
@@ -13397,7 +13396,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9">
       <c r="A326" s="1" t="s">
         <v>10</v>
       </c>
@@ -13405,7 +13404,7 @@
         <v>662</v>
       </c>
       <c r="C326" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>662</v>
@@ -13426,7 +13425,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9">
       <c r="A327" s="1" t="s">
         <v>10</v>
       </c>
@@ -13434,7 +13433,7 @@
         <v>664</v>
       </c>
       <c r="C327" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>664</v>
@@ -13455,7 +13454,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9">
       <c r="A328" s="1" t="s">
         <v>10</v>
       </c>
@@ -13463,7 +13462,7 @@
         <v>666</v>
       </c>
       <c r="C328" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>666</v>
@@ -13484,7 +13483,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9">
       <c r="A329" s="1" t="s">
         <v>10</v>
       </c>
@@ -13492,7 +13491,7 @@
         <v>668</v>
       </c>
       <c r="C329" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>668</v>
@@ -13513,7 +13512,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9">
       <c r="A330" s="1" t="s">
         <v>10</v>
       </c>
@@ -13521,7 +13520,7 @@
         <v>670</v>
       </c>
       <c r="C330" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>670</v>
@@ -13542,7 +13541,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9">
       <c r="A331" s="1" t="s">
         <v>10</v>
       </c>
@@ -13550,7 +13549,7 @@
         <v>672</v>
       </c>
       <c r="C331" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>672</v>
@@ -13571,7 +13570,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9">
       <c r="A332" s="1" t="s">
         <v>10</v>
       </c>
@@ -13579,7 +13578,7 @@
         <v>674</v>
       </c>
       <c r="C332" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>674</v>
@@ -13600,7 +13599,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9">
       <c r="A333" s="1" t="s">
         <v>10</v>
       </c>
@@ -13608,7 +13607,7 @@
         <v>676</v>
       </c>
       <c r="C333" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>676</v>
@@ -13629,7 +13628,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9">
       <c r="A334" s="1" t="s">
         <v>10</v>
       </c>
@@ -13637,7 +13636,7 @@
         <v>678</v>
       </c>
       <c r="C334" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>678</v>
@@ -13658,7 +13657,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9">
       <c r="A335" s="1" t="s">
         <v>10</v>
       </c>
@@ -13666,7 +13665,7 @@
         <v>680</v>
       </c>
       <c r="C335" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>680</v>
@@ -13687,7 +13686,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9">
       <c r="A336" s="1" t="s">
         <v>10</v>
       </c>
@@ -13695,7 +13694,7 @@
         <v>682</v>
       </c>
       <c r="C336" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>682</v>
@@ -13716,7 +13715,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9">
       <c r="A337" s="1" t="s">
         <v>10</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>684</v>
       </c>
       <c r="C337" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>684</v>
@@ -13745,7 +13744,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9">
       <c r="A338" s="1" t="s">
         <v>10</v>
       </c>
@@ -13753,7 +13752,7 @@
         <v>686</v>
       </c>
       <c r="C338" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>686</v>
@@ -13774,7 +13773,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9">
       <c r="A339" s="1" t="s">
         <v>10</v>
       </c>
@@ -13782,7 +13781,7 @@
         <v>688</v>
       </c>
       <c r="C339" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>688</v>
@@ -13803,7 +13802,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9">
       <c r="A340" s="1" t="s">
         <v>10</v>
       </c>
@@ -13811,7 +13810,7 @@
         <v>690</v>
       </c>
       <c r="C340" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>690</v>
@@ -13832,7 +13831,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9">
       <c r="A341" s="1" t="s">
         <v>10</v>
       </c>
@@ -13840,7 +13839,7 @@
         <v>692</v>
       </c>
       <c r="C341" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>692</v>
@@ -13861,7 +13860,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9">
       <c r="A342" s="1" t="s">
         <v>10</v>
       </c>
@@ -13869,7 +13868,7 @@
         <v>694</v>
       </c>
       <c r="C342" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>694</v>
@@ -13890,7 +13889,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9">
       <c r="A343" s="1" t="s">
         <v>10</v>
       </c>
@@ -13898,7 +13897,7 @@
         <v>696</v>
       </c>
       <c r="C343" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>696</v>
@@ -13919,7 +13918,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9">
       <c r="A344" s="1" t="s">
         <v>10</v>
       </c>
@@ -13927,7 +13926,7 @@
         <v>698</v>
       </c>
       <c r="C344" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>698</v>
@@ -13948,7 +13947,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9">
       <c r="A345" s="1" t="s">
         <v>10</v>
       </c>
@@ -13956,7 +13955,7 @@
         <v>700</v>
       </c>
       <c r="C345" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>700</v>
@@ -13977,7 +13976,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9">
       <c r="A346" s="1" t="s">
         <v>10</v>
       </c>
@@ -13985,7 +13984,7 @@
         <v>702</v>
       </c>
       <c r="C346" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>702</v>
@@ -14006,7 +14005,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9">
       <c r="A347" s="1" t="s">
         <v>10</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>704</v>
       </c>
       <c r="C347" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>704</v>
@@ -14035,7 +14034,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9">
       <c r="A348" s="1" t="s">
         <v>10</v>
       </c>
@@ -14043,7 +14042,7 @@
         <v>706</v>
       </c>
       <c r="C348" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>706</v>
@@ -14064,7 +14063,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9">
       <c r="A349" s="1" t="s">
         <v>10</v>
       </c>
@@ -14072,7 +14071,7 @@
         <v>708</v>
       </c>
       <c r="C349" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>708</v>
@@ -14093,7 +14092,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9">
       <c r="A350" s="1" t="s">
         <v>10</v>
       </c>
@@ -14101,7 +14100,7 @@
         <v>710</v>
       </c>
       <c r="C350" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>710</v>
@@ -14122,7 +14121,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9">
       <c r="A351" s="1" t="s">
         <v>10</v>
       </c>
@@ -14130,7 +14129,7 @@
         <v>712</v>
       </c>
       <c r="C351" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>712</v>
@@ -14151,7 +14150,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9">
       <c r="A352" s="1" t="s">
         <v>10</v>
       </c>
@@ -14159,7 +14158,7 @@
         <v>714</v>
       </c>
       <c r="C352" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>714</v>
@@ -14180,7 +14179,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9">
       <c r="A353" s="1" t="s">
         <v>10</v>
       </c>
@@ -14188,7 +14187,7 @@
         <v>716</v>
       </c>
       <c r="C353" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>716</v>
@@ -14209,7 +14208,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9">
       <c r="A354" s="1" t="s">
         <v>10</v>
       </c>
@@ -14217,7 +14216,7 @@
         <v>718</v>
       </c>
       <c r="C354" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>718</v>
@@ -14238,7 +14237,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9">
       <c r="A355" s="1" t="s">
         <v>10</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>720</v>
       </c>
       <c r="C355" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>720</v>
@@ -14267,7 +14266,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9">
       <c r="A356" s="1" t="s">
         <v>10</v>
       </c>
@@ -14275,7 +14274,7 @@
         <v>722</v>
       </c>
       <c r="C356" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>722</v>
@@ -14296,7 +14295,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9">
       <c r="A357" s="1" t="s">
         <v>10</v>
       </c>
@@ -14304,7 +14303,7 @@
         <v>724</v>
       </c>
       <c r="C357" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>724</v>
@@ -14325,7 +14324,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9">
       <c r="A358" s="1" t="s">
         <v>10</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>726</v>
       </c>
       <c r="C358" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>726</v>
@@ -14354,7 +14353,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9">
       <c r="A359" s="1" t="s">
         <v>10</v>
       </c>
@@ -14362,7 +14361,7 @@
         <v>728</v>
       </c>
       <c r="C359" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>728</v>
@@ -14383,7 +14382,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9">
       <c r="A360" s="1" t="s">
         <v>10</v>
       </c>
@@ -14391,7 +14390,7 @@
         <v>730</v>
       </c>
       <c r="C360" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>730</v>
@@ -14412,7 +14411,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9">
       <c r="A361" s="1" t="s">
         <v>10</v>
       </c>
@@ -14420,7 +14419,7 @@
         <v>732</v>
       </c>
       <c r="C361" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>733</v>
@@ -14441,7 +14440,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9">
       <c r="A362" s="1" t="s">
         <v>10</v>
       </c>
@@ -14449,7 +14448,7 @@
         <v>735</v>
       </c>
       <c r="C362" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>735</v>
@@ -14470,7 +14469,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9">
       <c r="A363" s="1" t="s">
         <v>10</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>737</v>
       </c>
       <c r="C363" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>737</v>
@@ -14499,7 +14498,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9">
       <c r="A364" s="1" t="s">
         <v>10</v>
       </c>
@@ -14507,7 +14506,7 @@
         <v>739</v>
       </c>
       <c r="C364" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>739</v>
@@ -14528,7 +14527,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9">
       <c r="A365" s="1" t="s">
         <v>10</v>
       </c>
@@ -14536,7 +14535,7 @@
         <v>741</v>
       </c>
       <c r="C365" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>741</v>
@@ -14557,7 +14556,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9">
       <c r="A366" s="1" t="s">
         <v>10</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>743</v>
       </c>
       <c r="C366" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>743</v>
@@ -14586,7 +14585,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9">
       <c r="A367" s="1" t="s">
         <v>10</v>
       </c>
@@ -14594,7 +14593,7 @@
         <v>745</v>
       </c>
       <c r="C367" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>745</v>
@@ -14615,7 +14614,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9">
       <c r="A368" s="1" t="s">
         <v>10</v>
       </c>
@@ -14623,7 +14622,7 @@
         <v>747</v>
       </c>
       <c r="C368" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>747</v>
@@ -14644,7 +14643,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9">
       <c r="A369" s="1" t="s">
         <v>10</v>
       </c>
@@ -14652,7 +14651,7 @@
         <v>749</v>
       </c>
       <c r="C369" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>749</v>
@@ -14673,7 +14672,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9">
       <c r="A370" s="1" t="s">
         <v>10</v>
       </c>
@@ -14681,7 +14680,7 @@
         <v>751</v>
       </c>
       <c r="C370" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>751</v>
@@ -14702,7 +14701,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9">
       <c r="A371" s="1" t="s">
         <v>10</v>
       </c>
@@ -14710,7 +14709,7 @@
         <v>753</v>
       </c>
       <c r="C371" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>753</v>
@@ -14731,7 +14730,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9">
       <c r="A372" s="1" t="s">
         <v>10</v>
       </c>
@@ -14739,7 +14738,7 @@
         <v>755</v>
       </c>
       <c r="C372" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>755</v>
@@ -14760,7 +14759,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9">
       <c r="A373" s="1" t="s">
         <v>10</v>
       </c>
@@ -14768,7 +14767,7 @@
         <v>757</v>
       </c>
       <c r="C373" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>757</v>
@@ -14789,7 +14788,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9">
       <c r="A374" s="1" t="s">
         <v>10</v>
       </c>
@@ -14797,7 +14796,7 @@
         <v>759</v>
       </c>
       <c r="C374" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>759</v>
@@ -14818,7 +14817,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9">
       <c r="A375" s="1" t="s">
         <v>10</v>
       </c>
@@ -14826,7 +14825,7 @@
         <v>761</v>
       </c>
       <c r="C375" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>761</v>
@@ -14847,7 +14846,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9">
       <c r="A376" s="1" t="s">
         <v>10</v>
       </c>
@@ -14855,7 +14854,7 @@
         <v>763</v>
       </c>
       <c r="C376" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>763</v>
@@ -14876,7 +14875,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9">
       <c r="A377" s="1" t="s">
         <v>10</v>
       </c>
@@ -14884,7 +14883,7 @@
         <v>765</v>
       </c>
       <c r="C377" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>765</v>
@@ -14905,7 +14904,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9">
       <c r="A378" s="1" t="s">
         <v>10</v>
       </c>
@@ -14913,7 +14912,7 @@
         <v>767</v>
       </c>
       <c r="C378" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>767</v>
@@ -14934,7 +14933,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9">
       <c r="A379" s="1" t="s">
         <v>10</v>
       </c>
@@ -14942,7 +14941,7 @@
         <v>769</v>
       </c>
       <c r="C379" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>769</v>
@@ -14963,7 +14962,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9">
       <c r="A380" s="1" t="s">
         <v>10</v>
       </c>
@@ -14971,7 +14970,7 @@
         <v>771</v>
       </c>
       <c r="C380" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>771</v>
@@ -14992,7 +14991,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9">
       <c r="A381" s="1" t="s">
         <v>10</v>
       </c>
@@ -15000,7 +14999,7 @@
         <v>773</v>
       </c>
       <c r="C381" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>773</v>
@@ -15021,7 +15020,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -15031,7 +15030,7 @@
       <c r="G382" s="3"/>
       <c r="I382" s="1"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -15041,7 +15040,7 @@
       <c r="G383" s="3"/>
       <c r="I383" s="1"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -15051,7 +15050,7 @@
       <c r="G384" s="3"/>
       <c r="I384" s="1"/>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -15061,7 +15060,7 @@
       <c r="G385" s="3"/>
       <c r="I385" s="1"/>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -15071,15 +15070,15 @@
       <c r="G386" s="3"/>
       <c r="I386" s="1"/>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9">
       <c r="A387" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J387">
     <sortCondition ref="E2:E387"/>
   </sortState>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins bottom="0" footer="0" header="0" left="0" right="0" top="0"/>
+  <pageSetup copies="0" fitToHeight="0" fitToWidth="0" horizontalDpi="0" orientation="landscape" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>